--- a/data/canshu1.xlsx
+++ b/data/canshu1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9570"/>
+    <workbookView windowWidth="28125" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -77,24 +77,15 @@
     'conditions':'{\"medicineid\":\"278803\"}'
     }</t>
   </si>
-  <si>
-    <t>{
-    'user_city_name':'上海市',
-    'user_region_id':'95',
-    'pageIndex':'1',
-    'pageSize':'',
-    'conditions':'{\"medicineid\":\"278803\"}'
-    }</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -125,6 +116,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -141,14 +193,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -156,35 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -193,7 +208,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,47 +237,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +261,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,7 +297,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,163 +393,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,6 +452,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,30 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,28 +547,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,16 +572,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,115 +590,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
@@ -1169,32 +1160,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="243" customHeight="1" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.2.252:18080" tooltip="http://192.168.2.252:18080"/>
     <hyperlink ref="B3" r:id="rId1" display="http://192.168.2.252:18080"/>
     <hyperlink ref="B4" r:id="rId1" display="http://192.168.2.252:18080"/>
-    <hyperlink ref="B5" r:id="rId1" display="http://192.168.2.252:18080"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
